--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_1_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_1_sine_0.1_.xlsx
@@ -571,39 +571,39 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.82000000000013</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>7.586524001605237e-14</v>
+        <v>2.254259948477475e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>34.28060180824274</v>
+        <v>48.51248143355631</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[25.257755935582736, 43.303447680902735]</t>
+          <t>[40.53957669627214, 56.48538617084048]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.350298313393068e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.870059662678614e-12</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.717026615475502</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 2.0189214050096567]</t>
+          <t>[1.3522370781217319, 1.7296055650394262]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.97118425467826</v>
+        <v>65.09931036773861</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.447232889025024, 66.4951356203315]</t>
+          <t>[59.71206483042523, 70.486555905052]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.583903903904</v>
+        <v>17.18576576576586</v>
       </c>
       <c r="X2" t="n">
-        <v>15.48744744744753</v>
+        <v>16.50198198198207</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.68036036036046</v>
+        <v>17.86954954954965</v>
       </c>
     </row>
     <row r="3">
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.70000000000058</v>
+        <v>25.56000000000056</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.404876629062528e-13</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.895278518651336e-12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.901246300992959</v>
-      </c>
+        <v>2.254259948477475e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>33.70183830205829</v>
+        <v>44.5362795641766</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[23.3358151466067, 44.067861457509885]</t>
+          <t>[33.3285599290011, 55.7439991993521]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>6.391551732320977e-10</v>
+        <v>1.021405182655144e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.391551732320977e-10</v>
+        <v>1.021405182655144e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.6415264277600778, 0.06289474781961513]</t>
+          <t>[-0.8805264694746171, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.1070198820248336</v>
+        <v>2.523152249356286e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1070198820248336</v>
+        <v>2.523152249356286e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>64.74200854181566</v>
+        <v>63.27589039532914</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[58.76139025997846, 70.72262682365286]</t>
+          <t>[57.382677073339416, 69.16910371731888]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.183383383383411</v>
+        <v>2.609729729729786</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.2572572572572611</v>
+        <v>1.63747747747751</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.624024024024084</v>
+        <v>3.581981981982061</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_1_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_1_sine_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.77000000000012</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.254259948477475e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>3.455947158366246e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4528015980033975</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.51248143355631</v>
+        <v>45.1567481642554</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[40.53957669627214, 56.48538617084048]</t>
+          <t>[35.98302277432031, 54.3304735541905]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3522370781217319, 1.7296055650394262]</t>
+          <t>[1.503184472888809, 1.9308687580621955]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.09931036773861</v>
+        <v>55.52833176634787</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.71206483042523, 70.486555905052]</t>
+          <t>[49.98586938163965, 61.070794151056084]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.18576576576586</v>
+        <v>16.56936936936946</v>
       </c>
       <c r="X2" t="n">
-        <v>16.50198198198207</v>
+        <v>15.79339339339348</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.86954954954965</v>
+        <v>17.34534534534544</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.56000000000056</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,44 +663,44 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.254259948477475e-16</v>
+        <v>3.455947158366246e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.5362795641766</v>
+        <v>41.80124383725839</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.3285599290011, 55.7439991993521]</t>
+          <t>[31.540343201823177, 52.0621444726936]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.021405182655144e-13</v>
+        <v>2.797762022055394e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.021405182655144e-13</v>
+        <v>2.797762022055394e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6415264277600778</v>
+        <v>0.3585000625718093</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.8805264694746171, -0.4025263860455386]</t>
+          <t>[0.09434212172942491, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.523152249356286e-07</v>
+        <v>0.007990425724696104</v>
       </c>
       <c r="R3" t="n">
-        <v>2.523152249356286e-07</v>
+        <v>0.007990425724696104</v>
       </c>
       <c r="S3" t="n">
-        <v>63.27589039532914</v>
+        <v>61.36869231860279</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.382677073339416, 69.16910371731888]</t>
+          <t>[55.509219412525866, 67.22816522467971]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.609729729729786</v>
+        <v>24.50708708708767</v>
       </c>
       <c r="X3" t="n">
-        <v>1.63747747747751</v>
+        <v>23.41441441441497</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.581981981982061</v>
+        <v>25.59975975976037</v>
       </c>
     </row>
   </sheetData>
